--- a/code/jqForGraduation/python/testData/attrFrequencyTime.xlsx
+++ b/code/jqForGraduation/python/testData/attrFrequencyTime.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>麻感频度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -408,10 +408,64 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
       <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -486,87 +540,87 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,50)/100</f>
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" ca="1" si="0">RANDBETWEEN(0,50)/100</f>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(50,80)/100-B3</f>
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:O18" ca="1" si="1">RANDBETWEEN(50,80)/100-C3</f>
-        <v>0.35000000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22999999999999998</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69000000000000006</v>
+        <v>6.9999999999999951E-2</v>
       </c>
       <c r="P3">
         <f ca="1">1-B3-I3</f>
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:V18" ca="1" si="2">1-C3-J3</f>
-        <v>0.47000000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41000000000000003</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.46999999999999992</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -575,87 +629,87 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:H32" ca="1" si="3">RANDBETWEEN(0,50)/100</f>
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
         <v>0.47</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:O32" ca="1" si="4">RANDBETWEEN(50,80)/100-B4</f>
-        <v>0.49999999999999994</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10000000000000003</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16000000000000003</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:V32" ca="1" si="5">1-B4-I4</f>
-        <v>0.3000000000000001</v>
+        <v>0.35999999999999988</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48000000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4300000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43999999999999995</v>
+        <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -664,83 +718,83 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="2"/>
         <v>0.26</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.24000000000000005</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.53999999999999992</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18000000000000005</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.40999999999999992</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.43999999999999989</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.31000000000000005</v>
-      </c>
       <c r="U5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="2"/>
@@ -753,87 +807,87 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
-      </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26999999999999996</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61999999999999988</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
-      </c>
       <c r="Q6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="2"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="2"/>
         <v>0.43</v>
       </c>
-      <c r="S6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" ca="1" si="2"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="U6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.49000000000000005</v>
-      </c>
       <c r="V6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -842,87 +896,87 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45999999999999996</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.25</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42000000000000004</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59000000000000008</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25000000000000006</v>
+        <v>0.27</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42000000000000004</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20999999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33999999999999986</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -931,59 +985,59 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
-      </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18000000000000005</v>
+        <v>0.19000000000000006</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.26</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>0.41999999999999993</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="5"/>
@@ -991,27 +1045,27 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33999999999999997</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -1020,87 +1074,87 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.49</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="1"/>
         <v>0.27999999999999997</v>
       </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.64</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16000000000000003</v>
-      </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36000000000000004</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15000000000000002</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22999999999999993</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000008</v>
+        <v>0.39</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22999999999999998</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31000000000000011</v>
+        <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -1109,71 +1163,71 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74</v>
+        <v>0.48</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53999999999999992</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21999999999999997</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4200000000000001</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.43999999999999989</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="2"/>
@@ -1181,15 +1235,15 @@
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47000000000000003</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21999999999999997</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -1198,87 +1252,87 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41999999999999993</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47000000000000003</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30999999999999994</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.47999999999999993</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ca="1" si="2"/>
         <v>0.41000000000000003</v>
       </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="R11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21999999999999992</v>
-      </c>
-      <c r="S11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.31999999999999995</v>
-      </c>
-      <c r="T11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36</v>
-      </c>
-      <c r="U11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.31000000000000005</v>
-      </c>
       <c r="V11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32999999999999985</v>
+        <v>0.32999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -1287,87 +1341,87 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.34</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.43</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11000000000000004</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="1"/>
         <v>0.24</v>
       </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.22999999999999993</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="2"/>
         <v>0.44</v>
       </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.71</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.46</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
-      </c>
       <c r="R12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43999999999999995</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29000000000000004</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.3199999999999999</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46999999999999992</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -1376,87 +1430,87 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" ca="1" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
-      </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000007</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11999999999999994</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="5"/>
+        <v>0.47999999999999993</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37000000000000005</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ca="1" si="2"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q13">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.36999999999999994</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26</v>
-      </c>
-      <c r="S13">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.34</v>
-      </c>
-      <c r="T13">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="U13">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4300000000000001</v>
-      </c>
       <c r="V13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -1465,87 +1519,87 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21999999999999997</v>
+        <v>0.19000000000000006</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42000000000000004</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="5"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="2"/>
         <v>0.37</v>
       </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.37000000000000005</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="S14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.37000000000000005</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.49</v>
-      </c>
       <c r="U14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33999999999999997</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31999999999999995</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -1554,87 +1608,87 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.61</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999992</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.36</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20999999999999996</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39999999999999997</v>
-      </c>
       <c r="S15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26000000000000006</v>
+        <v>0.3</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43000000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1999999999999999</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33999999999999997</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -1643,87 +1697,87 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22999999999999998</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.42999999999999994</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ca="1" si="2"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.38999999999999996</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
-      </c>
-      <c r="R16">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="S16">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.40000000000000008</v>
-      </c>
       <c r="T16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43999999999999995</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49000000000000005</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44999999999999996</v>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -1732,87 +1786,87 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
-      </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77</v>
+        <v>0.38</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999992</v>
+        <v>0.2</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67999999999999994</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29000000000000004</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36000000000000004</v>
+        <v>0.19000000000000006</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22999999999999998</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31000000000000005</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31000000000000005</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23000000000000004</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20999999999999996</v>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
@@ -1821,87 +1875,87 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27999999999999997</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="1"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" ca="1" si="1"/>
         <v>0.52</v>
       </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.48000000000000004</v>
-      </c>
       <c r="O18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37999999999999995</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36000000000000004</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45999999999999996</v>
+        <v>0.27</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24</v>
+        <v>0.47000000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -1910,87 +1964,87 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22999999999999998</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.78</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.77</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.21999999999999997</v>
       </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.64</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.24</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.64</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.45999999999999991</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.39</v>
-      </c>
-      <c r="S19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="T19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="U19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.37</v>
-      </c>
       <c r="V19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -1999,87 +2053,87 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27999999999999997</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47000000000000003</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30999999999999994</v>
+        <v>0.66</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31999999999999995</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000009</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47999999999999993</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26000000000000006</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42000000000000004</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
@@ -2088,87 +2142,87 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
-      </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" ca="1" si="3"/>
         <v>0.18</v>
       </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
-      </c>
       <c r="I21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39000000000000007</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59000000000000008</v>
+        <v>0.13</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33999999999999986</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43999999999999995</v>
+        <v>0.32999999999999985</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37</v>
+        <v>0.46999999999999992</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40000000000000008</v>
+        <v>0.35</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47000000000000003</v>
+        <v>0.31000000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -2177,19 +2231,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
@@ -2197,59 +2251,59 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71000000000000008</v>
+        <v>0.52999999999999992</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32999999999999996</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48999999999999994</v>
+        <v>0.31</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53999999999999992</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20999999999999996</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41999999999999993</v>
+        <v>0.20999999999999991</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4300000000000001</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33999999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="5"/>
@@ -2257,7 +2311,7 @@
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31000000000000005</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -2266,87 +2320,87 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.44</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.43</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33999999999999997</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48000000000000004</v>
+        <v>0.13999999999999996</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="4"/>
+        <v>0.51</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11000000000000004</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.46</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ca="1" si="5"/>
         <v>0.36</v>
       </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.64</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.46</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.62</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.39</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.20999999999999991</v>
-      </c>
-      <c r="R23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.49</v>
-      </c>
-      <c r="S23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.38</v>
-      </c>
-      <c r="T23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.20999999999999996</v>
-      </c>
-      <c r="U23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.48999999999999994</v>
-      </c>
       <c r="V23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -2355,87 +2409,87 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38999999999999996</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22000000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28999999999999998</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31000000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20999999999999996</v>
+        <v>0.38</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37999999999999995</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42000000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20999999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45999999999999991</v>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -2444,87 +2498,87 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
+        <v>0.33</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.22999999999999998</v>
-      </c>
       <c r="K25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13000000000000006</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56000000000000005</v>
+        <v>0.30999999999999994</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28000000000000003</v>
+        <v>0.28000000000000008</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000004</v>
+        <v>0.39</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36999999999999988</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38999999999999996</v>
+        <v>0.43999999999999989</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -2533,87 +2587,87 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
-      </c>
       <c r="F26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15000000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53999999999999992</v>
+        <v>0.45</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39000000000000007</v>
+        <v>0.52</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36</v>
+        <v>0.11000000000000004</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44000000000000006</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21999999999999997</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30000000000000004</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="5"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ca="1" si="5"/>
         <v>0.19999999999999996</v>
-      </c>
-      <c r="T26">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="U26">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.39</v>
-      </c>
-      <c r="V26">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.32999999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -2622,87 +2676,87 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
         <v>0.47</v>
       </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
-      </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25999999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43999999999999995</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39999999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20999999999999996</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31000000000000011</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43000000000000005</v>
+        <v>0.47</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36999999999999994</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31</v>
+        <v>0.34999999999999992</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -2711,87 +2765,87 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
-      </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10999999999999999</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54999999999999993</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25999999999999995</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41000000000000003</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43000000000000005</v>
+        <v>0.3899999999999999</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26000000000000006</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31000000000000011</v>
+        <v>0.4</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -2800,23 +2854,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.49</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
@@ -2824,63 +2878,63 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59000000000000008</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="5"/>
+        <v>0.37</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34999999999999992</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ca="1" si="5"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="R29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="S29">
+      <c r="V29">
         <f t="shared" ca="1" si="5"/>
         <v>0.35</v>
-      </c>
-      <c r="T29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.35</v>
-      </c>
-      <c r="U29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.24</v>
-      </c>
-      <c r="V29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.43999999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -2889,87 +2943,87 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
-      </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39999999999999997</v>
+        <v>8.9999999999999969E-2</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76</v>
+        <v>0.66999999999999993</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69</v>
+        <v>0.37</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25999999999999995</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19999999999999996</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20999999999999996</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39999999999999997</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -2982,83 +3036,83 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.44</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39999999999999997</v>
+        <v>0.45</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6</v>
+        <v>0.66999999999999993</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19000000000000006</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52999999999999992</v>
+        <v>0.36</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4200000000000001</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ca="1" si="5"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="R31">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.37</v>
-      </c>
       <c r="S31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32999999999999996</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47</v>
+        <v>0.28000000000000008</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -3067,87 +3121,87 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.37</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.51</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.72</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="4"/>
         <v>0.39</v>
       </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
-      </c>
-      <c r="I32">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.45999999999999996</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="L32">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.32</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.39999999999999997</v>
-      </c>
       <c r="O32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37000000000000005</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000004</v>
+        <v>0.45999999999999991</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41000000000000003</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26999999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44</v>
+        <v>0.4499999999999999</v>
       </c>
     </row>
   </sheetData>
